--- a/links.xlsx
+++ b/links.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
